--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/A2m-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/A2m-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>A2m</t>
+  </si>
+  <si>
+    <t>Lrp1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>A2m</t>
-  </si>
-  <si>
-    <t>Lrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.066965</v>
       </c>
       <c r="I2">
-        <v>0.792133668490315</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8511057447890188</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>0.04506847179666666</v>
+        <v>0.241886352415</v>
       </c>
       <c r="R2">
-        <v>0.27041083078</v>
+        <v>1.45131811449</v>
       </c>
       <c r="S2">
-        <v>0.003149011214929376</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="T2">
-        <v>0.002303992221176274</v>
+        <v>0.01262296693390161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.066965</v>
       </c>
       <c r="I3">
-        <v>0.792133668490315</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8511057447890188</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
         <v>3.118221132694444</v>
@@ -641,10 +641,10 @@
         <v>28.06399019425</v>
       </c>
       <c r="S3">
-        <v>0.2178754443191668</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="T3">
-        <v>0.2391147385487842</v>
+        <v>0.2440890227431923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.066965</v>
       </c>
       <c r="I4">
-        <v>0.792133668490315</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8511057447890188</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>4.159750925262778</v>
+        <v>3.350948243066667</v>
       </c>
       <c r="R4">
-        <v>37.437758327365</v>
+        <v>30.1585341876</v>
       </c>
       <c r="S4">
-        <v>0.2906489124828538</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="T4">
-        <v>0.3189824302366882</v>
+        <v>0.2623065033256284</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.066965</v>
       </c>
       <c r="I5">
-        <v>0.792133668490315</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8511057447890188</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>0.6688313417141667</v>
+        <v>0.7247671727316667</v>
       </c>
       <c r="R5">
-        <v>4.012988050284999</v>
+        <v>4.34860303639</v>
       </c>
       <c r="S5">
-        <v>0.04673238989456809</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="T5">
-        <v>0.03419202265256981</v>
+        <v>0.03782235733776705</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -797,10 +797,10 @@
         <v>0.066965</v>
       </c>
       <c r="I6">
-        <v>0.792133668490315</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8511057447890188</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>0.1395933490988889</v>
+        <v>1.162740981307222</v>
       </c>
       <c r="R6">
-        <v>1.25634014189</v>
+        <v>10.464668831765</v>
       </c>
       <c r="S6">
-        <v>0.00975362607867402</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="T6">
-        <v>0.01070444517964236</v>
+        <v>0.09101737745760805</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.066965</v>
       </c>
       <c r="I7">
-        <v>0.792133668490315</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8511057447890188</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>3.205507391118889</v>
+        <v>4.498587865377777</v>
       </c>
       <c r="R7">
-        <v>28.84956652007</v>
+        <v>40.4872907884</v>
       </c>
       <c r="S7">
-        <v>0.2239742845001229</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="T7">
-        <v>0.2458081159501579</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.0058575</v>
-      </c>
-      <c r="H8">
-        <v>0.011715</v>
-      </c>
-      <c r="I8">
-        <v>0.2078663315096851</v>
-      </c>
-      <c r="J8">
-        <v>0.1488942552109812</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.019046</v>
-      </c>
-      <c r="N8">
-        <v>4.038092</v>
-      </c>
-      <c r="O8">
-        <v>0.003975353327590414</v>
-      </c>
-      <c r="P8">
-        <v>0.002707057536954368</v>
-      </c>
-      <c r="Q8">
-        <v>0.011826561945</v>
-      </c>
-      <c r="R8">
-        <v>0.04730624778</v>
-      </c>
-      <c r="S8">
-        <v>0.0008263421126610387</v>
-      </c>
-      <c r="T8">
-        <v>0.0004030653157780938</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.0058575</v>
-      </c>
-      <c r="H9">
-        <v>0.011715</v>
-      </c>
-      <c r="I9">
-        <v>0.2078663315096851</v>
-      </c>
-      <c r="J9">
-        <v>0.1488942552109812</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>139.6948166666666</v>
-      </c>
-      <c r="N9">
-        <v>419.0844499999999</v>
-      </c>
-      <c r="O9">
-        <v>0.2750488370661026</v>
-      </c>
-      <c r="P9">
-        <v>0.2809459811695414</v>
-      </c>
-      <c r="Q9">
-        <v>0.8182623886249998</v>
-      </c>
-      <c r="R9">
-        <v>4.909574331749999</v>
-      </c>
-      <c r="S9">
-        <v>0.05717339274693583</v>
-      </c>
-      <c r="T9">
-        <v>0.04183124262075721</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.0058575</v>
-      </c>
-      <c r="H10">
-        <v>0.011715</v>
-      </c>
-      <c r="I10">
-        <v>0.2078663315096851</v>
-      </c>
-      <c r="J10">
-        <v>0.1488942552109812</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>186.3548536666667</v>
-      </c>
-      <c r="N10">
-        <v>559.064561</v>
-      </c>
-      <c r="O10">
-        <v>0.3669190239530987</v>
-      </c>
-      <c r="P10">
-        <v>0.3747858972750336</v>
-      </c>
-      <c r="Q10">
-        <v>1.0915735553525</v>
-      </c>
-      <c r="R10">
-        <v>6.549441332115</v>
-      </c>
-      <c r="S10">
-        <v>0.07627011147024489</v>
-      </c>
-      <c r="T10">
-        <v>0.05580346703834543</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.0058575</v>
-      </c>
-      <c r="H11">
-        <v>0.011715</v>
-      </c>
-      <c r="I11">
-        <v>0.2078663315096851</v>
-      </c>
-      <c r="J11">
-        <v>0.1488942552109812</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>29.9633245</v>
-      </c>
-      <c r="N11">
-        <v>59.926649</v>
-      </c>
-      <c r="O11">
-        <v>0.05899558591371686</v>
-      </c>
-      <c r="P11">
-        <v>0.04017364805949665</v>
-      </c>
-      <c r="Q11">
-        <v>0.17551017325875</v>
-      </c>
-      <c r="R11">
-        <v>0.7020406930349999</v>
-      </c>
-      <c r="S11">
-        <v>0.01226319601914878</v>
-      </c>
-      <c r="T11">
-        <v>0.005981625406926833</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.0058575</v>
-      </c>
-      <c r="H12">
-        <v>0.011715</v>
-      </c>
-      <c r="I12">
-        <v>0.2078663315096851</v>
-      </c>
-      <c r="J12">
-        <v>0.1488942552109812</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>6.253715333333333</v>
-      </c>
-      <c r="N12">
-        <v>18.761146</v>
-      </c>
-      <c r="O12">
-        <v>0.01231310631861278</v>
-      </c>
-      <c r="P12">
-        <v>0.0125771036621259</v>
-      </c>
-      <c r="Q12">
-        <v>0.036631137565</v>
-      </c>
-      <c r="R12">
-        <v>0.21978682539</v>
-      </c>
-      <c r="S12">
-        <v>0.002559480239938762</v>
-      </c>
-      <c r="T12">
-        <v>0.00187265848248354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.0058575</v>
-      </c>
-      <c r="H13">
-        <v>0.011715</v>
-      </c>
-      <c r="I13">
-        <v>0.2078663315096851</v>
-      </c>
-      <c r="J13">
-        <v>0.1488942552109812</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>143.6051993333333</v>
-      </c>
-      <c r="N13">
-        <v>430.815598</v>
-      </c>
-      <c r="O13">
-        <v>0.2827480934208786</v>
-      </c>
-      <c r="P13">
-        <v>0.2888103122968479</v>
-      </c>
-      <c r="Q13">
-        <v>0.841167455095</v>
-      </c>
-      <c r="R13">
-        <v>5.04700473057</v>
-      </c>
-      <c r="S13">
-        <v>0.05877380892075576</v>
-      </c>
-      <c r="T13">
-        <v>0.04300219634669006</v>
+        <v>0.3521417722019025</v>
       </c>
     </row>
   </sheetData>
